--- a/Utilities/Table Excel Files/Tbl_HoldTypesToBeConsideredForCreditCheckReleases.xlsx
+++ b/Utilities/Table Excel Files/Tbl_HoldTypesToBeConsideredForCreditCheckReleases.xlsx
@@ -8,10 +8,11 @@
   </bookViews>
   <sheets>
     <sheet sheetId="1" r:id="rId1" name="Tbl_HoldTypesToBeConsideredForC"/>
-    <sheet r:id="rId4" name="Tbl_HoldTypesToBeConsideredFor1" sheetId="2"/>
+    <sheet r:id="rId4" sheetId="2" name="Tbl_HoldTypesToBeConsideredFor1"/>
+    <sheet r:id="rId5" name="Tbl_HoldTypesToBeConsideredFor2" sheetId="3"/>
   </sheets>
   <definedNames>
-    <definedName name="Tbl_HoldTypesToBeConsideredForCreditCheckReleases">'Tbl_HoldTypesToBeConsideredFor1'!$A$1:$B$5</definedName>
+    <definedName name="Tbl_HoldTypesToBeConsideredForCreditCheckReleases">'Tbl_HoldTypesToBeConsideredFor2'!$A$1:$B$5</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -474,4 +475,71 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row outlineLevel="0" r="1">
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="inlineStr">
+        <is>
+          <t>HoldTypesToBeConsideredForCreditCheckReleases</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2">
+      <c r="A2" s="0">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="inlineStr">
+        <is>
+          <t>LOGI Scheduling Hold</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3">
+      <c r="A3" s="0">
+        <v>3</v>
+      </c>
+      <c r="B3" s="0" t="inlineStr">
+        <is>
+          <t>LOGI Manual Credit Hold</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4">
+      <c r="A4" s="0">
+        <v>4</v>
+      </c>
+      <c r="B4" s="0" t="inlineStr">
+        <is>
+          <t>LOGI SOX Customer Payment Terms Discrepancy</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="5">
+      <c r="A5" s="0">
+        <v>5</v>
+      </c>
+      <c r="B5" s="0" t="inlineStr">
+        <is>
+          <t>Logi Credit Limit Evaluation Hold</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>